--- a/data/trans_bre/P17_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P17_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>13,33</t>
+          <t>9,15</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,92</t>
+          <t>2,88</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>11,37</t>
+          <t>11,11</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>14,29</t>
+          <t>10,58</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>135,65%</t>
+          <t>4,8</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>103,0%</t>
+          <t>88,91%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>127,68%</t>
+          <t>41,33%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>140,63%</t>
+          <t>133,6%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>114,56%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>37,9%</t>
         </is>
       </c>
     </row>
@@ -668,42 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,22; 18,73</t>
+          <t>1,52; 16,18</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,62; 10,33</t>
+          <t>-3,37; 8,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,96; 16,71</t>
+          <t>4,15; 18,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,94; 30,16</t>
+          <t>3,06; 18,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>58,16; 262,48</t>
+          <t>-3,53; 13,1</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>15,25; 290,19</t>
+          <t>4,54; 214,29</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>48,75; 259,53</t>
+          <t>-37,1; 196,22</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>46,96; 331,3</t>
+          <t>29,37; 353,57</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>19,63; 343,18</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-22,13; 157,61</t>
         </is>
       </c>
     </row>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>10,68</t>
+          <t>9,81</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,05</t>
+          <t>3,59</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,74</t>
+          <t>4,26</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8,15</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>92,38%</t>
+          <t>12,05</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>44,54%</t>
+          <t>79,42%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>47,99%</t>
+          <t>50,56%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>67,58%</t>
+          <t>44,12%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>8,03%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>84,55%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,86; 17,51</t>
+          <t>1,26; 18,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,91; 10,46</t>
+          <t>-2,95; 10,21</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 12,22</t>
+          <t>-2,74; 11,39</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,61; 15,22</t>
+          <t>-6,57; 8,64</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>24,25; 204,55</t>
+          <t>2,54; 28,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-49,82; 214,33</t>
+          <t>6,34; 233,14</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-14,02; 147,12</t>
+          <t>-31,51; 251,81</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>7,44; 163,71</t>
+          <t>-20,18; 189,4</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-37,57; 87,1</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>11,62; 276,05</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,59</t>
+          <t>-9,64</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>-1,4</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,54</t>
+          <t>13,31</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,17</t>
+          <t>10,41</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>15,33%</t>
+          <t>-14,04</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-5,67%</t>
+          <t>-26,05%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>53,35%</t>
+          <t>-15,31%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>36,4%</t>
+          <t>232,99%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>84,48%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-42,34%</t>
         </is>
       </c>
     </row>
@@ -868,42 +934,52 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-23,26; 20,32</t>
+          <t>-50,68; 17,76</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,34; 8,86</t>
+          <t>-16,19; 11,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 17,38</t>
+          <t>-0,65; 29,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,95; 18,14</t>
+          <t>-8,49; 29,06</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-60,56; 168,93</t>
+          <t>-54,4; 15,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-78,22; 199,47</t>
+          <t>-82,86; 132,51</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-43,29; 305,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-40,38; 220,64</t>
+          <t>-45,83; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-44,43; 760,62</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>10,99</t>
+          <t>7,27</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,44</t>
+          <t>2,71</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,48</t>
+          <t>8,56</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10,83</t>
+          <t>6,69</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>90,14%</t>
+          <t>5,45</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>58,82%</t>
+          <t>51,86%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>82,04%</t>
+          <t>37,19%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>94,86%</t>
+          <t>99,55%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>58,36%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>34,88%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1054,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,83; 15,68</t>
+          <t>-1,47; 12,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 8,0</t>
+          <t>-1,36; 6,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,18; 12,51</t>
+          <t>4,03; 13,4</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,71; 18,1</t>
+          <t>0,85; 11,99</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>34,77; 162,43</t>
+          <t>-3,34; 12,87</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-25,37; 144,31</t>
+          <t>-9,13; 121,19</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>32,89; 152,67</t>
+          <t>-17,2; 121,88</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>40,98; 181,96</t>
+          <t>35,54; 206,39</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>5,91; 141,6</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-20,28; 112,21</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1011,9 +1114,9 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P17_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P17_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,235 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>9,15</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>2,88</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>11,11</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>10,58</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>4,8</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>88,91%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>41,33%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>133,6%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>114,56%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>37,9%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>9.146636142065212</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>3.169307166168264</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>10.66361252231272</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>9.893743265582968</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>4.926993451714553</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.8890924693150918</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.4594491118029136</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>1.20611164711695</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.9766296793966581</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.385291751187135</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>1,52; 16,18</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-3,37; 8,4</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>4,15; 18,3</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>3,06; 18,08</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-3,53; 13,1</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>4,54; 214,29</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-37,1; 196,22</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>29,37; 353,57</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>19,63; 343,18</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-22,13; 157,61</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>1.523456047407575</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-2.767035174541898</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>3.220819462310239</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>2.076305549782778</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-3.28548894269473</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>0.04539344158367672</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.3466475154111879</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0.2562231649630747</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>0.1011244072336074</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.2023679188015854</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>16.17845237287193</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>9.050883814402717</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>17.7799914789875</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>18.07791727208376</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>14.68055546782088</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>2.142905077590813</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>2.24278538831118</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>3.271761588557465</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>3.070165862414569</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>1.713318219109129</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>9,81</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>3,59</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>4,26</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>1,11</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>12,05</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>79,42%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>50,56%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>44,12%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>8,03%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>84,55%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>1,26; 18,34</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-2,95; 10,21</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-2,74; 11,39</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-6,57; 8,64</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>2,54; 28,0</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>6,34; 233,14</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-31,51; 251,81</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-20,18; 189,4</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-37,57; 87,1</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>11,62; 276,05</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>9.812045964748236</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.7115348499968699</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>2.879129954581799</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.7386153400467887</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>10.75469466707723</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.7941836557016656</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.07536892265367802</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.2699585807560702</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.05197148818865511</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.7768736695041152</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-9,64</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-1,4</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>13,31</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>10,41</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-14,04</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-26,05%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-15,31%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>232,99%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>84,48%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-42,34%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>1.261846659810291</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-8.428215419319498</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-4.864800295464654</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-7.453690673587678</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>1.661377013053654</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>0.06342834085628594</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.5492649274389532</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.3286980036387047</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.3863945812300895</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>0.03411349505048623</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-50,68; 17,76</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-16,19; 11,31</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-0,65; 29,32</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-8,49; 29,06</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-54,4; 15,04</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-82,86; 132,51</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-45,83; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-44,43; 760,62</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>18.33775102368621</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>7.795309300136746</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>10.10901979710565</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>8.46239360610225</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>24.05497996330177</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>2.331366900016</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>1.658649302491474</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1.562408454656995</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.8403541077447234</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>2.487874358312447</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,117 +879,223 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>7,27</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>2,71</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>8,56</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>6,69</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>5,45</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>51,86%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>37,19%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>99,55%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>58,36%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>34,88%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-9.641074792673161</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.667874231459016</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>15.61779313885033</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>9.10610812168215</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-14.34838248572156</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.2604962053829709</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.07621040729948479</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>2.824149052034531</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.7232088219056323</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>-0.4311450600091419</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-1,47; 12,98</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-1,36; 6,76</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>4,03; 13,4</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>0,85; 11,99</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-3,34; 12,87</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-9,13; 121,19</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-17,2; 121,88</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>35,54; 206,39</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>5,91; 141,6</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-20,28; 112,21</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-50.67783755470509</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-14.79488761045173</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>1.362542178169964</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-10.91408268594994</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-54.14137047689945</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.8286248344934219</v>
+      </c>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="n">
+        <v>-0.4081847437706378</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.4959989231567826</v>
+      </c>
+      <c r="L11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>17.7570117320696</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>12.49875506923283</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>33.27453221250298</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>27.50602371843007</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>14.52539728660137</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>1.325066683276575</v>
+      </c>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
+      <c r="K12" s="6" t="n">
+        <v>7.171951409239891</v>
+      </c>
+      <c r="L12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>7.270100251860828</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1.715800510958299</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>7.992972489856569</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>6.014887789875453</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>4.938944722406899</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.5185934981377621</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.2095745963305911</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.8613877819069442</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.4963831277272814</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.3168174147743167</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-1.466288001910271</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-3.11254473901874</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>3.087023362283177</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.4557558001573835</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-4.103040928254327</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.09130595632817408</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.2929719346270682</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.2457629802854665</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.02600969618589851</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.2101521306261412</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>12.97543354423559</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>6.060017465390048</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>12.92011208575549</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>11.28444117320977</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>12.37506387929747</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>1.211888669353983</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>1.129249564730023</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>1.893520518002668</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>1.235945958814898</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>1.059729512032428</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1112,13 +1103,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
